--- a/学校选择1.xlsx
+++ b/学校选择1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\uv_code_lib\spyder_to_get_number\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github_code_lib\spyder_to_get_number\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47285F91-5C65-4D87-B01C-6EC95C891365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A386AE5C-AD57-4D21-864A-15C905024AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4365" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,14 +409,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +426,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,14 +451,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -2209,25 +2217,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91:N95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="15.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2265,95 +2273,95 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>500</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
         <v>495</v>
       </c>
-      <c r="I2" s="4" t="e">
+      <c r="I2" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J2" s="4" t="e">
+      <c r="J2" s="6" t="e">
         <f>_xlfn.XLOOKUP(A2,[1]cneonl1!$A:$A,[1]cneonl1!$D:$D)</f>
         <v>#N/A</v>
       </c>
-      <c r="K2" s="3" t="e">
+      <c r="K2" s="5" t="e">
         <f>_xlfn.XLOOKUP(A2,'[2]2024单招录取率存疑'!$A:$A,'[2]2024单招录取率存疑'!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="L2" s="3" t="e">
+      <c r="L2" s="5" t="e">
         <f>_xlfn.XLOOKUP(A2,[1]cneonl1!$A:$A,[1]cneonl1!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>1200</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="5">
         <v>5</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>1195</v>
       </c>
-      <c r="I3" s="4" t="e">
+      <c r="I3" s="6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J3" s="4" t="e">
+      <c r="J3" s="6" t="e">
         <f>_xlfn.XLOOKUP(A3,[1]cneonl1!$A:$A,[1]cneonl1!$D:$D)</f>
         <v>#N/A</v>
       </c>
-      <c r="K3" s="3" t="e">
+      <c r="K3" s="5" t="e">
         <f>_xlfn.XLOOKUP(A3,'[2]2024单招录取率存疑'!$A:$A,'[2]2024单招录取率存疑'!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="L3" s="3" t="e">
+      <c r="L3" s="5" t="e">
         <f>_xlfn.XLOOKUP(A3,[1]cneonl1!$A:$A,[1]cneonl1!$B:$B)</f>
         <v>#N/A</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2393,11 +2401,11 @@
         <f>_xlfn.XLOOKUP(A4,[1]cneonl1!$A:$A,[1]cneonl1!$B:$B)</f>
         <v>1470</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2441,7 +2449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2523,7 +2531,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2564,7 +2572,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2646,51 +2654,51 @@
         <v>930</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>2480</v>
       </c>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <v>2475</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="8">
         <v>0.68</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="8">
         <f>_xlfn.XLOOKUP(A11,[1]cneonl1!$A:$A,[1]cneonl1!$D:$D)</f>
         <v>0.71661237785016285</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="7">
         <f>_xlfn.XLOOKUP(A11,'[2]2024单招录取率存疑'!$A:$A,'[2]2024单招录取率存疑'!$B:$B)</f>
         <v>2685</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <f>_xlfn.XLOOKUP(A11,[1]cneonl1!$A:$A,[1]cneonl1!$B:$B)</f>
         <v>2640</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2731,7 +2739,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2772,89 +2780,89 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>2004</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>0.66</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <f>_xlfn.XLOOKUP(A14,[1]cneonl1!$A:$A,[1]cneonl1!$D:$D)</f>
         <v>0.70439070204273302</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <f>_xlfn.XLOOKUP(A14,'[2]2024单招录取率存疑'!$A:$A,'[2]2024单招录取率存疑'!$B:$B)</f>
         <v>3000</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <f>_xlfn.XLOOKUP(A14,[1]cneonl1!$A:$A,[1]cneonl1!$B:$B)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="3">
         <v>2700</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3">
         <v>30</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="3">
         <v>30</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <v>30</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>30</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
         <v>2580</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>0.64</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <f>_xlfn.XLOOKUP(A15,[1]cneonl1!$A:$A,[1]cneonl1!$D:$D)</f>
         <v>0.8957362952346829</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="3">
         <f>_xlfn.XLOOKUP(A15,'[2]2024单招录取率存疑'!$A:$A,'[2]2024单招录取率存疑'!$B:$B)</f>
         <v>2700</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="3">
         <f>_xlfn.XLOOKUP(A15,[1]cneonl1!$A:$A,[1]cneonl1!$B:$B)</f>
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2895,7 +2903,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2977,7 +2985,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -3018,7 +3026,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3100,7 +3108,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -3141,7 +3149,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3182,7 +3190,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -3264,7 +3272,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3305,7 +3313,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -3346,7 +3354,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -3387,7 +3395,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -3469,7 +3477,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3510,7 +3518,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3551,7 +3559,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -3592,7 +3600,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -3633,7 +3641,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -3674,7 +3682,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -3715,7 +3723,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -3756,7 +3764,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -3797,7 +3805,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -3838,7 +3846,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>50</v>
       </c>
@@ -3879,48 +3887,48 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>2000</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="3">
         <v>2</v>
       </c>
-      <c r="E41" s="5">
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <v>0</v>
-      </c>
-      <c r="G41" s="5">
-        <v>0</v>
-      </c>
-      <c r="H41" s="5">
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>1998</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="4">
         <v>0.52</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="4">
         <f>_xlfn.XLOOKUP(A41,[1]cneonl1!$A:$A,[1]cneonl1!$D:$D)</f>
         <v>0.66828675577156749</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="3">
         <f>_xlfn.XLOOKUP(A41,'[2]2024单招录取率存疑'!$A:$A,'[2]2024单招录取率存疑'!$B:$B)</f>
         <v>2200</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="3">
         <f>_xlfn.XLOOKUP(A41,[1]cneonl1!$A:$A,[1]cneonl1!$B:$B)</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3961,7 +3969,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -4002,7 +4010,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -4043,7 +4051,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -4084,7 +4092,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4125,7 +4133,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -4166,7 +4174,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -4207,7 +4215,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4248,7 +4256,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -4289,7 +4297,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -4330,7 +4338,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>37</v>
       </c>
@@ -4371,7 +4379,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -4412,7 +4420,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>41</v>
       </c>
@@ -4453,7 +4461,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -4494,7 +4502,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -4535,48 +4543,48 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>3500</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="5">
+      <c r="C57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="3">
         <v>12</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="3">
         <v>8</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="3">
         <v>8</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="3">
         <v>8</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="3">
         <v>3464</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="4">
         <v>0.48</v>
       </c>
-      <c r="J57" s="6">
+      <c r="J57" s="4">
         <f>_xlfn.XLOOKUP(A57,[1]cneonl1!$A:$A,[1]cneonl1!$D:$D)</f>
         <v>0.56790524095408079</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="3">
         <f>_xlfn.XLOOKUP(A57,'[2]2024单招录取率存疑'!$A:$A,'[2]2024单招录取率存疑'!$B:$B)</f>
         <v>3500</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="3">
         <f>_xlfn.XLOOKUP(A57,[1]cneonl1!$A:$A,[1]cneonl1!$B:$B)</f>
         <v>3500</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -4617,7 +4625,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -4658,7 +4666,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -4699,7 +4707,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -4781,7 +4789,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>18</v>
       </c>
@@ -4863,7 +4871,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -4904,7 +4912,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -4945,7 +4953,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4986,7 +4994,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -5027,7 +5035,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -5068,7 +5076,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -5109,7 +5117,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -5150,7 +5158,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -5158,7 +5166,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -5166,7 +5174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -5174,7 +5182,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -5182,7 +5190,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -5198,7 +5206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -5206,7 +5214,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -5214,7 +5222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -5222,7 +5230,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -5230,7 +5238,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -5238,7 +5246,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -5246,7 +5254,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -5254,7 +5262,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -5262,7 +5270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -5270,7 +5278,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -5278,7 +5286,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -5286,7 +5294,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -5294,32 +5302,32 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N90" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N91" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N92" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N93" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N94" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N95" t="s">
         <v>106</v>
       </c>
